--- a/data/power capacity by province&type.xlsx
+++ b/data/power capacity by province&type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\Rpackages\china_co2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B21FF1B-28D9-43CF-8424-93894BF59433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AD6E0C-E89A-4FD5-A5B4-9F65831A313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1860" windowWidth="27540" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1570" yWindow="-110" windowWidth="36940" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Generating Capacity of 60" sheetId="1" r:id="rId1"/>
@@ -1314,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EA189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
